--- a/Document Library/Bill Of Materials/BOM Proposal and Options.xlsx
+++ b/Document Library/Bill Of Materials/BOM Proposal and Options.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{50F2830B-CDDD-493A-98A1-15A5A88378F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F91634F-C65D-4C79-8113-7A6ADBD08F7A}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{D3D6F9E7-CBEE-4761-A2BB-8F132089315E}"/>
+    <workbookView xWindow="825" yWindow="-105" windowWidth="18495" windowHeight="11025" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hot Ends" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>This document contains part and component proposal and options</t>
   </si>
@@ -61,16 +56,63 @@
   </si>
   <si>
     <t>Chamber Filter</t>
+  </si>
+  <si>
+    <t>Water cooled Hot Ends</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manufacture </t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Cost US $</t>
+  </si>
+  <si>
+    <t>Max T deg C</t>
+  </si>
+  <si>
+    <t>Silicon sock</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>TriangleLabs</t>
+  </si>
+  <si>
+    <t>Dragon Hotend  standard flow</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>here</t>
+  </si>
+  <si>
+    <t>Dragon Hotend  High flow</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -93,13 +135,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -404,23 +457,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0BE5005-1F58-4395-A22B-964D35948AC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -466,4 +519,93 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2">
+        <v>86</v>
+      </c>
+      <c r="E4" s="1">
+        <v>500</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2">
+        <v>96</v>
+      </c>
+      <c r="E5" s="1">
+        <v>500</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G4" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Document Library/Bill Of Materials/BOM Proposal and Options.xlsx
+++ b/Document Library/Bill Of Materials/BOM Proposal and Options.xlsx
@@ -4,11 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="-105" windowWidth="18495" windowHeight="11025" activeTab="1"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="18492" windowHeight="11028" tabRatio="782" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Ark1" sheetId="1" r:id="rId1"/>
+    <sheet name="index" sheetId="1" r:id="rId1"/>
     <sheet name="Hot Ends" sheetId="2" r:id="rId2"/>
+    <sheet name="MGN Rails" sheetId="3" r:id="rId3"/>
+    <sheet name="Frame" sheetId="4" r:id="rId4"/>
+    <sheet name="Electronics" sheetId="5" r:id="rId5"/>
+    <sheet name="Hardware" sheetId="6" r:id="rId6"/>
+    <sheet name="Bed level sensor" sheetId="7" r:id="rId7"/>
+    <sheet name="Printer Bed" sheetId="8" r:id="rId8"/>
+    <sheet name="Stepper motors" sheetId="9" r:id="rId9"/>
+    <sheet name="Printed parts" sheetId="10" r:id="rId10"/>
+    <sheet name="Machined parts" sheetId="11" r:id="rId11"/>
+    <sheet name="Cable management + connectors" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -29,35 +39,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="103">
   <si>
     <t>This document contains part and component proposal and options</t>
   </si>
   <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Hotend</t>
-  </si>
-  <si>
-    <t>Part Name</t>
-  </si>
-  <si>
-    <t>Part Link</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
     <t>Extruder</t>
   </si>
   <si>
-    <t>Chamber Heater</t>
-  </si>
-  <si>
-    <t>Chamber Filter</t>
-  </si>
-  <si>
     <t>Water cooled Hot Ends</t>
   </si>
   <si>
@@ -76,9 +65,6 @@
     <t>Silicon sock</t>
   </si>
   <si>
-    <t>URL</t>
-  </si>
-  <si>
     <t>TriangleLabs</t>
   </si>
   <si>
@@ -88,10 +74,280 @@
     <t>yes</t>
   </si>
   <si>
-    <t>here</t>
-  </si>
-  <si>
     <t>Dragon Hotend  High flow</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Hot Ends</t>
+  </si>
+  <si>
+    <t>Solid State relays</t>
+  </si>
+  <si>
+    <t>Heaters</t>
+  </si>
+  <si>
+    <t>Fimeware</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCD </t>
+  </si>
+  <si>
+    <t>Control Boards32 bit</t>
+  </si>
+  <si>
+    <t>Stepper drivers</t>
+  </si>
+  <si>
+    <t>Ether Net</t>
+  </si>
+  <si>
+    <t>Wifi</t>
+  </si>
+  <si>
+    <t>BIGTREETECH Rumba32 V1.0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6  plug in </t>
+  </si>
+  <si>
+    <t>USD $</t>
+  </si>
+  <si>
+    <t>Lerdge -K Board</t>
+  </si>
+  <si>
+    <t>Octopus  V1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fans controllable </t>
+  </si>
+  <si>
+    <t>marlin</t>
+  </si>
+  <si>
+    <t>Displaay</t>
+  </si>
+  <si>
+    <t> BIGTREETECH TFT,LCD12864,LCD2004,</t>
+  </si>
+  <si>
+    <t>heater O/P</t>
+  </si>
+  <si>
+    <t>with interface</t>
+  </si>
+  <si>
+    <t>Thermister I/P</t>
+  </si>
+  <si>
+    <t>Optional Temp I/P</t>
+  </si>
+  <si>
+    <t>1 x PT100</t>
+  </si>
+  <si>
+    <t>Limit Sw's</t>
+  </si>
+  <si>
+    <t>6 +2</t>
+  </si>
+  <si>
+    <t>i/P voltage</t>
+  </si>
+  <si>
+    <t>24V Dc</t>
+  </si>
+  <si>
+    <t>24V DC 200W</t>
+  </si>
+  <si>
+    <t>need expansion board</t>
+  </si>
+  <si>
+    <t>Duet 3 6HC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 x Trinamic 5160 </t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>*10 x PWM</t>
+  </si>
+  <si>
+    <t>PT100/thermocouple</t>
+  </si>
+  <si>
+    <t>$ USD</t>
+  </si>
+  <si>
+    <t>Assesories</t>
+  </si>
+  <si>
+    <t>MGM 9C</t>
+  </si>
+  <si>
+    <t>MGM15C</t>
+  </si>
+  <si>
+    <t>MGM9H</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black rail </t>
+  </si>
+  <si>
+    <t>Black Rail</t>
+  </si>
+  <si>
+    <t>MGM12H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLTouch </t>
+  </si>
+  <si>
+    <t>BLTouch clone</t>
+  </si>
+  <si>
+    <t>ANTCLABS BLtouch V3.1 </t>
+  </si>
+  <si>
+    <t>Trianglelab 2021 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silicon heater pad </t>
+  </si>
+  <si>
+    <t>Cast plate 6mm</t>
+  </si>
+  <si>
+    <t>Cast plate 8mm</t>
+  </si>
+  <si>
+    <t>ACP 5080 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Removable build plates </t>
+  </si>
+  <si>
+    <t>Mic 6</t>
+  </si>
+  <si>
+    <t>Other Cast tooling plate</t>
+  </si>
+  <si>
+    <t>MGM Rails</t>
+  </si>
+  <si>
+    <t>Frame</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>Hardware</t>
+  </si>
+  <si>
+    <t>Bed level sensor</t>
+  </si>
+  <si>
+    <t>Printer Bed</t>
+  </si>
+  <si>
+    <t>Stepper motors</t>
+  </si>
+  <si>
+    <t>Printed parts</t>
+  </si>
+  <si>
+    <t>Machined parts</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>Water cooler</t>
+  </si>
+  <si>
+    <t>Titan AQUA Water Cooling Kit</t>
+  </si>
+  <si>
+    <t>Carbon Fibre parts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TianYuQi </t>
+  </si>
+  <si>
+    <t>500mm</t>
+  </si>
+  <si>
+    <t>15x15</t>
+  </si>
+  <si>
+    <t>20 x 20</t>
+  </si>
+  <si>
+    <t>10x10</t>
+  </si>
+  <si>
+    <t>Mosquito® Liquid</t>
+  </si>
+  <si>
+    <t>Slice Engineering</t>
+  </si>
+  <si>
+    <t>yes (300 degc max)</t>
+  </si>
+  <si>
+    <t>Max Print Speed</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>USA $</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USA $ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nema 17 </t>
+  </si>
+  <si>
+    <t>Redrex High Torque Nema 17 Stepper Motor 1.5A 40Ncm</t>
+  </si>
+  <si>
+    <t>Nema 17 Stepper Motor 48mm 59Ncm/84oz</t>
+  </si>
+  <si>
+    <t>ebay</t>
+  </si>
+  <si>
+    <t>alliexpress</t>
+  </si>
+  <si>
+    <t>Z axis</t>
+  </si>
+  <si>
+    <t>AB  Axis</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cable Chain </t>
+  </si>
+  <si>
+    <t>15 x20</t>
+  </si>
+  <si>
+    <t>Cloudray</t>
   </si>
 </sst>
 </file>
@@ -99,9 +355,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +366,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF040303"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -139,16 +445,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -457,7 +794,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -465,146 +802,965 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-    </row>
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B13" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B14" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.35"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" location="'Hot Ends'!A1" display="Hot Ends"/>
+    <hyperlink ref="B6" location="'MGN Rails'!A1" display="MGM Rails"/>
+    <hyperlink ref="B7" location="Frame!A1" display="Frame"/>
+    <hyperlink ref="B8" location="Electronics!A1" display="Electronics"/>
+    <hyperlink ref="B9" location="Hardware!A1" display="Hardware"/>
+    <hyperlink ref="B10" location="'Bed level sensor'!A1" display="'Bed level sensor"/>
+    <hyperlink ref="B11" location="'Printer Bed'!A1" display="'Printer Bed"/>
+    <hyperlink ref="B12" location="'Stepper motors'!A1" display="Stepper motors"/>
+    <hyperlink ref="B13" location="'Printed parts'!A1" display="'Printed parts"/>
+    <hyperlink ref="B14" location="'Machined parts'!A1" display="'Machined parts"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="index!A1" display="index"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="index!A1" display="index"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="15">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="index!A1" display="index"/>
+    <hyperlink ref="D4" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="D5" s="16">
         <v>86</v>
-      </c>
-      <c r="E4" s="1">
-        <v>500</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="2">
-        <v>96</v>
       </c>
       <c r="E5" s="1">
         <v>500</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="16">
+        <v>96</v>
+      </c>
+      <c r="E6" s="1">
+        <v>500</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="16">
+        <v>189</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C9" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="16">
+        <v>95</v>
+      </c>
+      <c r="E12" s="1">
+        <v>500</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G4" r:id="rId1"/>
+    <hyperlink ref="A1" location="index!A1" display="index"/>
+    <hyperlink ref="C12" r:id="rId1"/>
+    <hyperlink ref="C8" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId3"/>
+    <hyperlink ref="C6" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="16"/>
+    <col min="4" max="4" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="16">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="16">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B9" r:id="rId2"/>
+    <hyperlink ref="A1" location="index!A1" display="index"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="16">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="index!A1" display="index"/>
+    <hyperlink ref="B17" r:id="rId1"/>
+    <hyperlink ref="B18" r:id="rId2"/>
+    <hyperlink ref="B19" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.77734375" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="16"/>
+    <col min="4" max="5" width="10.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.77734375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="10"/>
+    <col min="12" max="12" width="10.44140625" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="44.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="16">
+        <v>154</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="1">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="16">
+        <v>65</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="1">
+        <v>5</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="1">
+        <v>6</v>
+      </c>
+      <c r="J5" s="10">
+        <v>4</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="16">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="16">
+        <v>144</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="6"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B9" s="6"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B11" s="6"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1"/>
+    <hyperlink ref="B16" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="A1" location="index!A1" display="index"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="index!A1" display="index"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="16">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="11"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="11"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="11"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="16">
+        <v>12.94</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B7" r:id="rId2"/>
+    <hyperlink ref="A1" location="index!A1" display="index"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.21875" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="index!A1" display="index"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.6640625" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="D1" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="15">
+        <v>14.98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="15">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="index!A1" display="index"/>
+    <hyperlink ref="C5" r:id="rId1"/>
+    <hyperlink ref="C6" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Document Library/Bill Of Materials/BOM Proposal and Options.xlsx
+++ b/Document Library/Bill Of Materials/BOM Proposal and Options.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="18492" windowHeight="11028" tabRatio="782" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="18492" windowHeight="11028" tabRatio="782"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -355,7 +355,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -475,10 +475,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -794,7 +794,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -804,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1333,7 +1333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>

--- a/Document Library/Bill Of Materials/BOM Proposal and Options.xlsx
+++ b/Document Library/Bill Of Materials/BOM Proposal and Options.xlsx
@@ -1,48 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="110" documentId="11_9272854DB7BEE02BD3517EDBE9A52E5A66615AA7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4327761-73C3-44FC-9CD1-5C67AC2E70EE}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="18492" windowHeight="11028" tabRatio="782"/>
+    <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" tabRatio="782" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
-    <sheet name="Hot Ends" sheetId="2" r:id="rId2"/>
-    <sheet name="MGN Rails" sheetId="3" r:id="rId3"/>
-    <sheet name="Frame" sheetId="4" r:id="rId4"/>
-    <sheet name="Electronics" sheetId="5" r:id="rId5"/>
-    <sheet name="Hardware" sheetId="6" r:id="rId6"/>
-    <sheet name="Bed level sensor" sheetId="7" r:id="rId7"/>
-    <sheet name="Printer Bed" sheetId="8" r:id="rId8"/>
-    <sheet name="Stepper motors" sheetId="9" r:id="rId9"/>
-    <sheet name="Printed parts" sheetId="10" r:id="rId10"/>
-    <sheet name="Machined parts" sheetId="11" r:id="rId11"/>
-    <sheet name="Cable management + connectors" sheetId="12" r:id="rId12"/>
+    <sheet name="Components" sheetId="13" r:id="rId2"/>
+    <sheet name="Hot Ends" sheetId="2" r:id="rId3"/>
+    <sheet name="MGN Rails" sheetId="3" r:id="rId4"/>
+    <sheet name="Frame" sheetId="4" r:id="rId5"/>
+    <sheet name="Electronics" sheetId="5" r:id="rId6"/>
+    <sheet name="Hardware" sheetId="6" r:id="rId7"/>
+    <sheet name="Bed level sensor" sheetId="7" r:id="rId8"/>
+    <sheet name="Printer Bed" sheetId="8" r:id="rId9"/>
+    <sheet name="Stepper motors" sheetId="9" r:id="rId10"/>
+    <sheet name="Printed parts" sheetId="10" r:id="rId11"/>
+    <sheet name="Machined parts" sheetId="11" r:id="rId12"/>
+    <sheet name="Cable management + connectors" sheetId="12" r:id="rId13"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Components!$A$3:$F$16</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="103">
-  <si>
-    <t>This document contains part and component proposal and options</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="131">
   <si>
     <t>Extruder</t>
   </si>
@@ -348,16 +346,103 @@
   </si>
   <si>
     <t>Cloudray</t>
+  </si>
+  <si>
+    <t>Project Valkyrie List of Component Proposal</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Describtion</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Type Link</t>
+  </si>
+  <si>
+    <t>Hotend</t>
+  </si>
+  <si>
+    <t>ABL Probe</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Mechatronics</t>
+  </si>
+  <si>
+    <t>Rail</t>
+  </si>
+  <si>
+    <t>Stepper Motor</t>
+  </si>
+  <si>
+    <t>Extrusion</t>
+  </si>
+  <si>
+    <t>Fan</t>
+  </si>
+  <si>
+    <t>ToolBoard</t>
+  </si>
+  <si>
+    <t>SSR</t>
+  </si>
+  <si>
+    <t>Heat Pad</t>
+  </si>
+  <si>
+    <t>Fuse</t>
+  </si>
+  <si>
+    <t>PSU</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>Endstop</t>
+  </si>
+  <si>
+    <t>Build Plate</t>
+  </si>
+  <si>
+    <t>Controller</t>
+  </si>
+  <si>
+    <t>Drive Gear</t>
+  </si>
+  <si>
+    <t>Pulley</t>
+  </si>
+  <si>
+    <t>Idler</t>
+  </si>
+  <si>
+    <t>Belt</t>
+  </si>
+  <si>
+    <t>Cable Managment</t>
+  </si>
+  <si>
+    <t>Sleeve</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,6 +508,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Amasis MT Pro Black"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -445,7 +536,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -487,9 +578,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperkobling" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -794,101 +886,98 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B5" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B7" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B8" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B9" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B10" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B10" s="5" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B11" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B11" s="5" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B12" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B12" s="5" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B13" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B13" s="5" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B14" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B14" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.35"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" location="'Hot Ends'!A1" display="Hot Ends"/>
-    <hyperlink ref="B6" location="'MGN Rails'!A1" display="MGM Rails"/>
-    <hyperlink ref="B7" location="Frame!A1" display="Frame"/>
-    <hyperlink ref="B8" location="Electronics!A1" display="Electronics"/>
-    <hyperlink ref="B9" location="Hardware!A1" display="Hardware"/>
-    <hyperlink ref="B10" location="'Bed level sensor'!A1" display="'Bed level sensor"/>
-    <hyperlink ref="B11" location="'Printer Bed'!A1" display="'Printer Bed"/>
-    <hyperlink ref="B12" location="'Stepper motors'!A1" display="Stepper motors"/>
-    <hyperlink ref="B13" location="'Printed parts'!A1" display="'Printed parts"/>
-    <hyperlink ref="B14" location="'Machined parts'!A1" display="'Machined parts"/>
+    <hyperlink ref="B5" location="'Hot Ends'!A1" display="Hot Ends" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B6" location="'MGN Rails'!A1" display="MGM Rails" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B7" location="Frame!A1" display="Frame" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B8" location="Electronics!A1" display="Electronics" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B9" location="Hardware!A1" display="Hardware" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B10" location="'Bed level sensor'!A1" display="'Bed level sensor" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B11" location="'Printer Bed'!A1" display="'Printer Bed" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B12" location="'Stepper motors'!A1" display="Stepper motors" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B13" location="'Printed parts'!A1" display="'Printed parts" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B14" location="'Machined parts'!A1" display="'Machined parts" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -896,104 +985,163 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.6328125" customWidth="1"/>
+    <col min="4" max="4" width="8.90625" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="D1" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="15">
+        <v>14.98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="15">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="index!A1" display="index" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="index!A1" display="index"/>
+    <hyperlink ref="A1" location="index!A1" display="index" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="index!A1" display="index"/>
+    <hyperlink ref="A1" location="index!A1" display="index" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="15"/>
+    <col min="6" max="6" width="8.90625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="F4" s="15">
         <v>9</v>
@@ -1001,68 +1149,360 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="index!A1" display="index"/>
-    <hyperlink ref="D4" r:id="rId1"/>
+    <hyperlink ref="A1" location="index!A1" display="index" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{00000000-0004-0000-0B00-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C7B88F-C248-4C99-957E-A446DC252288}">
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.6328125" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>111</v>
+      </c>
+      <c r="B27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:F16" xr:uid="{91C7B88F-C248-4C99-957E-A446DC252288}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:B34">
+    <sortCondition ref="A4:A34"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.36328125" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.36328125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="16.08984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.08984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="C5" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="D5" s="16">
         <v>86</v>
@@ -1071,18 +1511,18 @@
         <v>500</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="D6" s="16">
         <v>96</v>
@@ -1091,43 +1531,43 @@
         <v>500</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8" s="16">
         <v>189</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C9" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>78</v>
       </c>
       <c r="D12" s="16">
         <v>95</v>
@@ -1136,64 +1576,64 @@
         <v>500</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="index!A1" display="index"/>
-    <hyperlink ref="C12" r:id="rId1"/>
-    <hyperlink ref="C8" r:id="rId2"/>
-    <hyperlink ref="C5" r:id="rId3"/>
-    <hyperlink ref="C6" r:id="rId4"/>
+    <hyperlink ref="A1" location="index!A1" display="index" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C12" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="C8" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="16"/>
-    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="16"/>
+    <col min="4" max="4" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="C7" s="16">
         <v>16</v>
@@ -1202,12 +1642,12 @@
         <v>420</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="16">
         <v>15</v>
@@ -1216,103 +1656,103 @@
         <v>400</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B15" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
-    <hyperlink ref="B9" r:id="rId2"/>
-    <hyperlink ref="A1" location="index!A1" display="index"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="B9" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="A1" location="index!A1" display="index" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="16"/>
+    <col min="5" max="5" width="8.90625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2020</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>2040</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>3030</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B17" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="2" t="s">
+      <c r="C17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" t="s">
         <v>80</v>
-      </c>
-      <c r="C17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" t="s">
-        <v>81</v>
       </c>
       <c r="E17" s="16">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" t="s">
         <v>80</v>
-      </c>
-      <c r="C18" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" t="s">
-        <v>81</v>
       </c>
       <c r="E18" s="16">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" t="s">
         <v>80</v>
-      </c>
-      <c r="C19" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" t="s">
-        <v>81</v>
       </c>
       <c r="E19" s="16">
         <v>9</v>
@@ -1320,136 +1760,136 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="index!A1" display="index"/>
-    <hyperlink ref="B17" r:id="rId1"/>
-    <hyperlink ref="B18" r:id="rId2"/>
-    <hyperlink ref="B19" r:id="rId3"/>
+    <hyperlink ref="A1" location="index!A1" display="index" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="B17" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="B18" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="B19" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" customWidth="1"/>
-    <col min="2" max="2" width="21.88671875" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="16"/>
-    <col min="4" max="5" width="10.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.77734375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="10"/>
-    <col min="12" max="12" width="10.44140625" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="44.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.81640625" customWidth="1"/>
+    <col min="2" max="2" width="21.90625" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="16"/>
+    <col min="4" max="5" width="10.453125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.08984375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.81640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.90625" style="10"/>
+    <col min="12" max="12" width="10.453125" customWidth="1"/>
+    <col min="13" max="13" width="12.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="44.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="M2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="N2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="C3" s="16">
         <v>154</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G3" s="1">
         <v>4</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="10" t="s">
         <v>44</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>45</v>
       </c>
       <c r="K3" s="10">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="16">
         <v>65</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G5" s="1">
         <v>5</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I5" s="1">
         <v>6</v>
@@ -1458,309 +1898,246 @@
         <v>4</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B6" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="16">
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B7" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="16">
         <v>144</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B8" s="6"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B9" s="6"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B11" s="6"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="6"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" s="16">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1"/>
-    <hyperlink ref="B16" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
-    <hyperlink ref="A1" location="index!A1" display="index"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="index!A1" display="index"/>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="B16" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="A1" location="index!A1" display="index" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.88671875" customWidth="1"/>
-    <col min="2" max="2" width="22.5546875" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="16"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="16">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="11"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="11"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="11"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="16">
-        <v>12.94</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B7" r:id="rId2"/>
-    <hyperlink ref="A1" location="index!A1" display="index"/>
+    <hyperlink ref="A1" location="index!A1" display="index" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.90625" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B3" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="16">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="11"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="11"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="11"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="16">
+        <v>12.94</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="A1" location="index!A1" display="index" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.21875" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="17"/>
+    <col min="1" max="1" width="30.1796875" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="index!A1" display="index"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.6640625" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="15"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="D1" s="15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="15">
-        <v>14.98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="15">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="index!A1" display="index"/>
-    <hyperlink ref="C5" r:id="rId1"/>
-    <hyperlink ref="C6" r:id="rId2"/>
+    <hyperlink ref="A1" location="index!A1" display="index" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Document Library/Bill Of Materials/BOM Proposal and Options.xlsx
+++ b/Document Library/Bill Of Materials/BOM Proposal and Options.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="18492" windowHeight="11028" tabRatio="782" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="825" yWindow="-105" windowWidth="18495" windowHeight="11025" tabRatio="782"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="MGN Rails" sheetId="3" r:id="rId3"/>
     <sheet name="Frame" sheetId="4" r:id="rId4"/>
     <sheet name="Electronics" sheetId="5" r:id="rId5"/>
-    <sheet name="Hardware" sheetId="6" r:id="rId6"/>
+    <sheet name="Fasteners" sheetId="6" r:id="rId6"/>
     <sheet name="Bed level sensor" sheetId="7" r:id="rId7"/>
     <sheet name="Printer Bed" sheetId="8" r:id="rId8"/>
     <sheet name="Stepper motors" sheetId="9" r:id="rId9"/>
@@ -251,9 +251,6 @@
     <t>Electronics</t>
   </si>
   <si>
-    <t>Hardware</t>
-  </si>
-  <si>
     <t>Bed level sensor</t>
   </si>
   <si>
@@ -348,6 +345,9 @@
   </si>
   <si>
     <t>Cloudray</t>
+  </si>
+  <si>
+    <t>Fasteners</t>
   </si>
 </sst>
 </file>
@@ -355,7 +355,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -475,10 +475,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -802,18 +802,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -823,67 +821,66 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B10" s="5" t="s">
+    <row r="11" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B11" s="5" t="s">
+    <row r="12" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B12" s="5" t="s">
+    <row r="13" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B13" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B13" s="5" t="s">
+    <row r="14" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B14" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B14" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.35"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B5" location="'Hot Ends'!A1" display="Hot Ends"/>
     <hyperlink ref="B6" location="'MGN Rails'!A1" display="MGM Rails"/>
     <hyperlink ref="B7" location="Frame!A1" display="Frame"/>
     <hyperlink ref="B8" location="Electronics!A1" display="Electronics"/>
-    <hyperlink ref="B9" location="Hardware!A1" display="Hardware"/>
+    <hyperlink ref="B9" location="Fasteners!A2" display="Fasteners"/>
     <hyperlink ref="B10" location="'Bed level sensor'!A1" display="'Bed level sensor"/>
     <hyperlink ref="B11" location="'Printer Bed'!A1" display="'Printer Bed"/>
     <hyperlink ref="B12" location="'Stepper motors'!A1" display="Stepper motors"/>
@@ -903,11 +900,11 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -917,17 +914,17 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -946,11 +943,11 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -969,31 +966,31 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="15"/>
+    <col min="6" max="6" width="8.85546875" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F4" s="15">
         <v>9</v>
@@ -1016,28 +1013,28 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1054,10 +1051,10 @@
         <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -1074,10 +1071,10 @@
         <v>10</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -1094,15 +1091,15 @@
         <v>10</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8" s="16">
         <v>189</v>
@@ -1111,23 +1108,23 @@
         <v>10</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C9" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D12" s="16">
         <v>95</v>
@@ -1136,7 +1133,7 @@
         <v>500</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1159,17 +1156,17 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="16"/>
-    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="16"/>
+    <col min="4" max="4" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>47</v>
@@ -1242,18 +1239,18 @@
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="16"/>
+    <col min="5" max="5" width="8.85546875" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1273,18 +1270,18 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" t="s">
         <v>80</v>
-      </c>
-      <c r="C17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" t="s">
-        <v>81</v>
       </c>
       <c r="E17" s="16">
         <v>11</v>
@@ -1292,13 +1289,13 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" t="s">
         <v>80</v>
-      </c>
-      <c r="C18" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" t="s">
-        <v>81</v>
       </c>
       <c r="E18" s="16">
         <v>10</v>
@@ -1306,13 +1303,13 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" t="s">
         <v>80</v>
-      </c>
-      <c r="C19" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" t="s">
-        <v>81</v>
       </c>
       <c r="E19" s="16">
         <v>9</v>
@@ -1333,33 +1330,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" customWidth="1"/>
-    <col min="2" max="2" width="21.88671875" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="16"/>
-    <col min="4" max="5" width="10.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.77734375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="10"/>
-    <col min="12" max="12" width="10.44140625" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="44.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="16"/>
+    <col min="4" max="5" width="10.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="10"/>
+    <col min="12" max="12" width="10.42578125" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="44.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1400,7 +1395,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -1429,7 +1424,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>26</v>
       </c>
@@ -1467,7 +1462,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>22</v>
       </c>
@@ -1478,7 +1473,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
         <v>25</v>
       </c>
@@ -1489,27 +1484,27 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B8" s="6"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B9" s="6"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="6"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B11" s="6"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>40</v>
       </c>
@@ -1517,12 +1512,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -1544,11 +1539,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1567,27 +1562,27 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" customWidth="1"/>
-    <col min="2" max="2" width="22.5546875" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="16"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>58</v>
       </c>
@@ -1595,19 +1590,19 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B4" s="11"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B5" s="11"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>57</v>
       </c>
       <c r="B6" s="11"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
         <v>59</v>
       </c>
@@ -1633,66 +1628,66 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.21875" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="17"/>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -1713,33 +1708,33 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.6640625" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="15"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="13"/>
       <c r="D1" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" s="15">
         <v>14.98</v>
@@ -1747,10 +1742,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D6" s="15">
         <v>14</v>

--- a/Document Library/Bill Of Materials/BOM Proposal and Options.xlsx
+++ b/Document Library/Bill Of Materials/BOM Proposal and Options.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="816" yWindow="-108" windowWidth="18492" windowHeight="11016" tabRatio="782" activeTab="2"/>
+    <workbookView xWindow="816" yWindow="-108" windowWidth="18492" windowHeight="11016" tabRatio="782" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Components" sheetId="13" r:id="rId1"/>
     <sheet name="Frame" sheetId="4" r:id="rId2"/>
     <sheet name="Hardware" sheetId="6" r:id="rId3"/>
     <sheet name="Printed parts" sheetId="10" r:id="rId4"/>
+    <sheet name="whish list" sheetId="14" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Components!$A$3:$H$44</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="163">
   <si>
     <t>Extruder</t>
   </si>
@@ -60,9 +61,6 @@
     <t>Hardware</t>
   </si>
   <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>Titan AQUA Water Cooling Kit</t>
   </si>
   <si>
@@ -382,6 +380,141 @@
   </si>
   <si>
     <t>https://www.aliexpress.com/store/4607017?spm=a2g0o.productlist.0.0.7ab021deVvpKS9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wish List or features </t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes </t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Maybe</t>
+  </si>
+  <si>
+    <t>Power cut recovery</t>
+  </si>
+  <si>
+    <t>Heated Chamber  80 Deg C</t>
+  </si>
+  <si>
+    <t>Builtin Belt tension gauge</t>
+  </si>
+  <si>
+    <t>in Build heated spool storage</t>
+  </si>
+  <si>
+    <t>spool size 1kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spool size 5kg </t>
+  </si>
+  <si>
+    <t>filament runout sensor</t>
+  </si>
+  <si>
+    <t>LED touch screen</t>
+  </si>
+  <si>
+    <t>LED  with buttons/scroll wheel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text message if an  error </t>
+  </si>
+  <si>
+    <t>smoke detector safety</t>
+  </si>
+  <si>
+    <t>Heated bed over heating trip switch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">water leak detection </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> add to list </t>
+  </si>
+  <si>
+    <t>spool weight detection (estimate amount left)</t>
+  </si>
+  <si>
+    <t>multiple print heads  tool changer</t>
+  </si>
+  <si>
+    <t>dual print head either side of MGN bearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">filament diameter sensing </t>
+  </si>
+  <si>
+    <t>humidity + tempreater sensor in spool holder compartment</t>
+  </si>
+  <si>
+    <t>filament slip detection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">camera window in the filament spool area </t>
+  </si>
+  <si>
+    <t>E3D Water Cooling Kit</t>
+  </si>
+  <si>
+    <t>E3D</t>
+  </si>
+  <si>
+    <t>12vDC only</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>ZHUHAI</t>
+  </si>
+  <si>
+    <t>length mm</t>
+  </si>
+  <si>
+    <t>2020 T Slot</t>
+  </si>
+  <si>
+    <t>2040 T Slot</t>
+  </si>
+  <si>
+    <t>3030 T Slot</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>20 Series</t>
+  </si>
+  <si>
+    <t>30 series</t>
+  </si>
+  <si>
+    <t>T Slide nuts</t>
+  </si>
+  <si>
+    <t>M3 or M4 or  M5  Pk100</t>
+  </si>
+  <si>
+    <t>drop in T Nuts</t>
+  </si>
+  <si>
+    <t>2020 3030</t>
+  </si>
+  <si>
+    <t>good selection brackets</t>
+  </si>
+  <si>
+    <t>I think these guys would put a kit together</t>
+  </si>
+  <si>
+    <t>Xin Yu</t>
+  </si>
+  <si>
+    <t>$2 pk 20</t>
   </si>
 </sst>
 </file>
@@ -494,7 +627,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -533,6 +666,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -841,7 +977,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -849,11 +985,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:G3"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
@@ -869,50 +1005,50 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18">
       <c r="A1" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F4" s="6">
         <v>35</v>
@@ -920,19 +1056,19 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F5" s="6">
         <v>13</v>
@@ -940,33 +1076,33 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -974,13 +1110,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -988,13 +1124,13 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1002,13 +1138,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1016,59 +1152,59 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" t="s">
         <v>78</v>
       </c>
-      <c r="C12" t="s">
-        <v>79</v>
-      </c>
       <c r="D12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F12" s="6">
         <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F13" s="6">
         <v>8</v>
       </c>
       <c r="G13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14.4" customHeight="1">
@@ -1076,16 +1212,16 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>64</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F14" s="6">
         <v>7</v>
@@ -1096,13 +1232,13 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1110,10 +1246,10 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1121,10 +1257,10 @@
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1132,16 +1268,16 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>109</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F18" s="6">
         <v>24</v>
@@ -1152,16 +1288,16 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>109</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F19" s="6">
         <v>62</v>
@@ -1172,16 +1308,16 @@
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F20" s="6">
         <v>76</v>
@@ -1192,16 +1328,16 @@
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F21" s="6">
         <v>97</v>
@@ -1209,10 +1345,10 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
@@ -1221,7 +1357,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F22" s="6">
         <v>86</v>
@@ -1230,19 +1366,19 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D23" t="s">
         <v>1</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F23" s="6">
         <v>96</v>
@@ -1251,19 +1387,19 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" t="s">
         <v>19</v>
       </c>
-      <c r="D24" t="s">
-        <v>20</v>
-      </c>
       <c r="E24" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F24" s="6">
         <v>189</v>
@@ -1272,25 +1408,25 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F25" s="6">
         <v>3.5</v>
       </c>
       <c r="H25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1298,16 +1434,16 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F26" s="6">
         <v>38</v>
@@ -1315,25 +1451,25 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" t="s">
         <v>47</v>
       </c>
-      <c r="B27" t="s">
-        <v>48</v>
-      </c>
       <c r="C27" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D27" t="s">
         <v>1</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1341,22 +1477,22 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F28" s="6">
         <v>16</v>
       </c>
       <c r="G28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1364,22 +1500,22 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F29" s="6">
         <v>15</v>
       </c>
       <c r="G29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1387,22 +1523,22 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" t="s">
         <v>51</v>
-      </c>
-      <c r="B31" t="s">
-        <v>52</v>
       </c>
       <c r="D31" s="17"/>
       <c r="H31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1410,16 +1546,16 @@
         <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F32" s="6">
         <v>30</v>
@@ -1430,16 +1566,16 @@
         <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F33" s="6">
         <v>27</v>
@@ -1447,19 +1583,19 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F34" s="6">
         <v>15</v>
@@ -1467,19 +1603,19 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F35" s="6">
         <v>14</v>
@@ -1487,10 +1623,10 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1498,27 +1634,27 @@
         <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" t="s">
         <v>95</v>
       </c>
-      <c r="C38" t="s">
-        <v>97</v>
-      </c>
-      <c r="D38" t="s">
-        <v>96</v>
-      </c>
       <c r="E38" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F38" s="6">
         <v>57</v>
@@ -1526,19 +1662,19 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" t="s">
         <v>95</v>
       </c>
-      <c r="C39" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D39" t="s">
-        <v>96</v>
-      </c>
       <c r="E39" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F39" s="6">
         <v>73</v>
@@ -1549,22 +1685,22 @@
         <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>3</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F40" s="6">
         <v>43</v>
       </c>
       <c r="G40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1572,22 +1708,22 @@
         <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F41" s="6">
         <v>65</v>
       </c>
       <c r="G41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1595,22 +1731,22 @@
         <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C42" t="s">
         <v>6</v>
       </c>
       <c r="D42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F42" s="6">
         <v>154</v>
       </c>
       <c r="G42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1618,36 +1754,60 @@
         <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C43" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E43" s="2"/>
       <c r="H43" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D44" t="s">
         <v>1</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F44" s="6">
         <v>95</v>
       </c>
       <c r="G44" s="7"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" t="s">
+        <v>143</v>
+      </c>
+      <c r="D45" t="s">
+        <v>144</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F45" s="6">
+        <v>116</v>
+      </c>
+      <c r="G45" s="7"/>
+      <c r="H45" t="s">
+        <v>145</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A3:H44">
@@ -1686,102 +1846,285 @@
     <hyperlink ref="E32" r:id="rId25"/>
     <hyperlink ref="E18" r:id="rId26"/>
     <hyperlink ref="E19" r:id="rId27"/>
+    <hyperlink ref="E45" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId28"/>
+  <pageSetup orientation="portrait" r:id="rId29"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1">
-        <v>3030</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+    <row r="1" spans="1:6" s="1" customFormat="1">
+      <c r="A1" s="5"/>
+      <c r="B1" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="1">
+        <v>400</v>
+      </c>
+      <c r="E3" s="7">
+        <v>6.29</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" s="1">
+        <v>400</v>
+      </c>
+      <c r="E4" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" s="1">
+        <v>400</v>
+      </c>
+      <c r="E8" s="7">
+        <v>9.67</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="1">
+        <v>400</v>
+      </c>
+      <c r="E9" s="7">
+        <v>7.79</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D13" s="1">
+        <v>400</v>
+      </c>
+      <c r="E13" s="7">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" s="1">
+        <v>400</v>
+      </c>
+      <c r="E14" s="7">
+        <v>7.29</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="B17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="2" t="s">
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" t="s">
-        <v>15</v>
       </c>
       <c r="E17" s="7">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="2" t="s">
+      <c r="F17" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" t="s">
-        <v>15</v>
       </c>
       <c r="E18" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="2" t="s">
+      <c r="F18" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" t="s">
-        <v>15</v>
       </c>
       <c r="E19" s="7">
         <v>9</v>
       </c>
+      <c r="F19" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="B23" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23" t="s">
+        <v>155</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E23" s="7">
+        <v>9.18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" t="s">
+        <v>161</v>
+      </c>
+      <c r="C34" t="s">
+        <v>157</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" t="s">
+        <v>147</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G38" t="s">
+        <v>160</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="index!A1" display="index"/>
-    <hyperlink ref="B17" r:id="rId1"/>
-    <hyperlink ref="B18" r:id="rId2"/>
-    <hyperlink ref="B19" r:id="rId3"/>
+    <hyperlink ref="F3" r:id="rId1"/>
+    <hyperlink ref="F8" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="F9" r:id="rId4"/>
+    <hyperlink ref="F14" r:id="rId5"/>
+    <hyperlink ref="F13" r:id="rId6"/>
+    <hyperlink ref="F17" r:id="rId7"/>
+    <hyperlink ref="F18" r:id="rId8"/>
+    <hyperlink ref="F19" r:id="rId9"/>
+    <hyperlink ref="F34" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1791,7 +2134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -1804,38 +2147,38 @@
     <row r="1" spans="1:8">
       <c r="A1" s="4"/>
       <c r="H1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="8:9">
       <c r="H22" t="s">
+        <v>114</v>
+      </c>
+      <c r="I22" t="s">
         <v>115</v>
-      </c>
-      <c r="I22" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="23" spans="8:9">
       <c r="I23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1847,16 +2190,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="A1" s="4"/>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" t="s">
@@ -1865,23 +2204,159 @@
     </row>
     <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="index!A1" display="index"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="49.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Document Library/Bill Of Materials/BOM Proposal and Options.xlsx
+++ b/Document Library/Bill Of Materials/BOM Proposal and Options.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="816" yWindow="-108" windowWidth="18492" windowHeight="11016" tabRatio="782" activeTab="1"/>
+    <workbookView xWindow="816" yWindow="-108" windowWidth="18492" windowHeight="11016" tabRatio="782"/>
   </bookViews>
   <sheets>
     <sheet name="Components" sheetId="13" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="whish list" sheetId="14" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Components!$A$3:$H$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Components!$A$3:$H$46</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="186">
   <si>
     <t>Extruder</t>
   </si>
@@ -157,9 +157,6 @@
     <t>PSU</t>
   </si>
   <si>
-    <t>Switch</t>
-  </si>
-  <si>
     <t>Endstop</t>
   </si>
   <si>
@@ -307,9 +304,6 @@
     <t>Design Driven</t>
   </si>
   <si>
-    <t>Fan  hepa Filter</t>
-  </si>
-  <si>
     <t>Tool Head (extruder)</t>
   </si>
   <si>
@@ -364,12 +358,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>M3 x 12 Soc Cap HD ss</t>
-  </si>
-  <si>
-    <t>12mm Ball M4</t>
-  </si>
-  <si>
     <t xml:space="preserve">good selection of hardware </t>
   </si>
   <si>
@@ -400,9 +388,6 @@
     <t>Heated Chamber  80 Deg C</t>
   </si>
   <si>
-    <t>Builtin Belt tension gauge</t>
-  </si>
-  <si>
     <t>in Build heated spool storage</t>
   </si>
   <si>
@@ -421,27 +406,15 @@
     <t>LED  with buttons/scroll wheel</t>
   </si>
   <si>
-    <t xml:space="preserve">text message if an  error </t>
-  </si>
-  <si>
-    <t>smoke detector safety</t>
-  </si>
-  <si>
     <t>Heated bed over heating trip switch</t>
   </si>
   <si>
     <t xml:space="preserve">water leak detection </t>
   </si>
   <si>
-    <t xml:space="preserve"> add to list </t>
-  </si>
-  <si>
     <t>spool weight detection (estimate amount left)</t>
   </si>
   <si>
-    <t>multiple print heads  tool changer</t>
-  </si>
-  <si>
     <t>dual print head either side of MGN bearing</t>
   </si>
   <si>
@@ -515,6 +488,102 @@
   </si>
   <si>
     <t>$2 pk 20</t>
+  </si>
+  <si>
+    <t>Design Driven/ only on at cooldown  period</t>
+  </si>
+  <si>
+    <t>multiple print heads  tool changer manual and/or  auto</t>
+  </si>
+  <si>
+    <t>Builtin Belt tension gauge A/B and Z's</t>
+  </si>
+  <si>
+    <t>Filter hours logging/ time to change</t>
+  </si>
+  <si>
+    <t>text message if an  error / alert/ spool level</t>
+  </si>
+  <si>
+    <t>smoke detector safety/cutout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haohete Electric </t>
+  </si>
+  <si>
+    <t>SR -10AA/25AA/ 40AA AC control</t>
+  </si>
+  <si>
+    <t>highgrademetals.co.nz</t>
+  </si>
+  <si>
+    <t>expansion rate 24.2 * 10-6/K</t>
+  </si>
+  <si>
+    <t>expansion rate 23.5 * 10-6/K</t>
+  </si>
+  <si>
+    <t>IEC CONN, FUSED POWER ENTRY MODULE, PLUG 10A</t>
+  </si>
+  <si>
+    <t>Element 14</t>
+  </si>
+  <si>
+    <t>Formodal 030 (5083) 310 x 310 x 8mm</t>
+  </si>
+  <si>
+    <t>hepa Filter</t>
+  </si>
+  <si>
+    <t> HEPA Filter for Philips Electrolux EFH12W</t>
+  </si>
+  <si>
+    <t>Healthy 666</t>
+  </si>
+  <si>
+    <t>could use these ?</t>
+  </si>
+  <si>
+    <t>Mains connection</t>
+  </si>
+  <si>
+    <t>Safety</t>
+  </si>
+  <si>
+    <t>Fire Extinguisher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">`TENYU </t>
+  </si>
+  <si>
+    <t>TENYU TECH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IEC CONN, FUSED POWER ENTRY MODULE, PLUG 10A with Switch </t>
+  </si>
+  <si>
+    <t>Mechanical Limit Switch </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lerge </t>
+  </si>
+  <si>
+    <t> Optical Endstop </t>
+  </si>
+  <si>
+    <t>Limk</t>
+  </si>
+  <si>
+    <t>Printed or Machined parts</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add to list </t>
+  </si>
+  <si>
+    <t>Compressed air part cooling</t>
+  </si>
+  <si>
+    <t>May be pipe air from a  Link</t>
   </si>
 </sst>
 </file>
@@ -524,7 +593,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -605,6 +674,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -627,7 +703,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -669,6 +745,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -977,7 +1056,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -985,22 +1064,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="16.6640625" customWidth="1"/>
     <col min="2" max="2" width="32.33203125" customWidth="1"/>
-    <col min="3" max="3" width="48.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="50.109375" customWidth="1"/>
     <col min="6" max="6" width="11.5546875" style="6"/>
     <col min="7" max="7" width="41.33203125" customWidth="1"/>
-    <col min="8" max="8" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18">
@@ -1019,7 +1098,7 @@
         <v>28</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>30</v>
@@ -1028,10 +1107,10 @@
         <v>29</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1045,10 +1124,10 @@
         <v>7</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F4" s="6">
         <v>35</v>
@@ -1062,13 +1141,13 @@
         <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F5" s="6">
         <v>13</v>
@@ -1076,33 +1155,39 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H6" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" t="s">
-        <v>98</v>
+        <v>44</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="H7" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1110,13 +1195,16 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
         <v>70</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="H8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1124,13 +1212,16 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D9" t="s">
-        <v>69</v>
+      <c r="D9" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1138,13 +1229,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>72</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1152,56 +1243,65 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>73</v>
+        <v>167</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>69</v>
+        <v>162</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="6">
+        <v>48</v>
+      </c>
+      <c r="H11" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="6">
+        <v>8</v>
+      </c>
+      <c r="G12" t="s">
         <v>78</v>
-      </c>
-      <c r="D12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="6">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" t="s">
         <v>77</v>
       </c>
-      <c r="C13" t="s">
-        <v>82</v>
-      </c>
       <c r="D13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F13" s="6">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G13" t="s">
         <v>79</v>
@@ -1212,16 +1312,16 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>63</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F14" s="6">
         <v>7</v>
@@ -1235,21 +1335,45 @@
         <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D15" t="s">
+        <v>179</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0.5</v>
       </c>
       <c r="H15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>43</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="D16" t="s">
+        <v>179</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0.5</v>
       </c>
       <c r="H16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1257,30 +1381,30 @@
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>38</v>
+      </c>
+      <c r="G17" t="s">
+        <v>68</v>
       </c>
       <c r="H17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="B18" t="s">
-        <v>107</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>108</v>
+        <v>174</v>
+      </c>
+      <c r="C18" t="s">
+        <v>175</v>
+      </c>
+      <c r="D18" t="s">
+        <v>176</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" s="6">
-        <v>24</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1288,16 +1412,16 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F19" s="6">
         <v>62</v>
@@ -1305,22 +1429,22 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" t="s">
-        <v>87</v>
+        <v>105</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>106</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F20" s="6">
-        <v>76</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1331,59 +1455,60 @@
         <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F21" s="6">
-        <v>97</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="D22" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F22" s="6">
-        <v>86</v>
-      </c>
-      <c r="G22" s="7"/>
+        <v>97</v>
+      </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" t="s">
-        <v>53</v>
+        <v>168</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>169</v>
       </c>
       <c r="D23" t="s">
-        <v>1</v>
+        <v>170</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F23" s="6">
-        <v>96</v>
-      </c>
-      <c r="G23" s="7"/>
+        <v>51</v>
+      </c>
+      <c r="G23" t="s">
+        <v>171</v>
+      </c>
+      <c r="H23" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
@@ -1399,7 +1524,7 @@
         <v>19</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F24" s="6">
         <v>189</v>
@@ -1408,50 +1533,49 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>67</v>
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F25" s="6">
-        <v>3.5</v>
-      </c>
-      <c r="H25" t="s">
-        <v>92</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G25" s="7"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="D26" t="s">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F26" s="6">
-        <v>38</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G26" s="7"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
         <v>47</v>
@@ -1459,174 +1583,198 @@
       <c r="C27" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="D27" t="s">
-        <v>1</v>
+      <c r="D27" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>101</v>
+        <v>51</v>
+      </c>
+      <c r="F27" s="6">
+        <v>3.5</v>
       </c>
       <c r="H27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>172</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>57</v>
+        <v>165</v>
+      </c>
+      <c r="D28" t="s">
+        <v>166</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F28" s="6">
-        <v>16</v>
-      </c>
-      <c r="G28" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>172</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>57</v>
+        <v>177</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F29" s="6">
-        <v>15</v>
-      </c>
-      <c r="G29" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
-      </c>
-      <c r="H30" t="s">
-        <v>92</v>
+        <v>42</v>
+      </c>
+      <c r="C30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" s="6">
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
-      </c>
-      <c r="D31" s="17"/>
+        <v>46</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="H31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>86</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>85</v>
+        <v>59</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F32" s="6">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="G32" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>106</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>105</v>
+        <v>58</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F33" s="6">
-        <v>27</v>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" t="s">
-        <v>75</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F34" s="6">
-        <v>15</v>
+        <v>50</v>
+      </c>
+      <c r="D34" s="17"/>
+      <c r="H34" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>22</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>74</v>
+        <v>104</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>103</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F35" s="6">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F36" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1634,96 +1782,99 @@
         <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
-      </c>
-      <c r="H37" t="s">
-        <v>69</v>
+        <v>40</v>
+      </c>
+      <c r="C37" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F37" s="6">
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="D38" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F38" s="6">
-        <v>57</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B39" t="s">
-        <v>94</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="D39" t="s">
-        <v>95</v>
+        <v>36</v>
+      </c>
+      <c r="C39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F39" s="6">
-        <v>73</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>67</v>
+        <v>95</v>
+      </c>
+      <c r="D40" t="s">
+        <v>93</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F40" s="6">
-        <v>43</v>
-      </c>
-      <c r="G40" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="C41" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>67</v>
+        <v>94</v>
+      </c>
+      <c r="D41" t="s">
+        <v>93</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F41" s="6">
-        <v>65</v>
-      </c>
-      <c r="G41" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1733,20 +1884,20 @@
       <c r="B42" t="s">
         <v>39</v>
       </c>
-      <c r="C42" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" t="s">
-        <v>65</v>
+      <c r="C42" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F42" s="6">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="G42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1757,99 +1908,153 @@
         <v>39</v>
       </c>
       <c r="C43" t="s">
-        <v>103</v>
-      </c>
-      <c r="E43" s="2"/>
-      <c r="H43" t="s">
-        <v>104</v>
+        <v>4</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F43" s="6">
+        <v>65</v>
+      </c>
+      <c r="G43" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C44" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F44" s="6">
-        <v>95</v>
-      </c>
-      <c r="G44" s="7"/>
+        <v>154</v>
+      </c>
+      <c r="G44" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" t="s">
+        <v>101</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="H45" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
         <v>37</v>
       </c>
-      <c r="B45" t="s">
-        <v>54</v>
-      </c>
-      <c r="C45" t="s">
-        <v>143</v>
-      </c>
-      <c r="D45" t="s">
-        <v>144</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F45" s="6">
+      <c r="B46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" t="s">
+        <v>134</v>
+      </c>
+      <c r="D46" t="s">
+        <v>135</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F46" s="6">
         <v>116</v>
       </c>
-      <c r="G45" s="7"/>
-      <c r="H45" t="s">
-        <v>145</v>
-      </c>
+      <c r="G46" s="7"/>
+      <c r="H46" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F47" s="6">
+        <v>95</v>
+      </c>
+      <c r="G47" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:H44">
-    <sortState ref="A4:H45">
-      <sortCondition ref="B3:B45"/>
+  <autoFilter ref="A3:H46">
+    <sortState ref="A4:H47">
+      <sortCondition ref="B3:B46"/>
     </sortState>
   </autoFilter>
   <sortState ref="A4:B34">
     <sortCondition ref="A4:A34"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="E23" r:id="rId1"/>
-    <hyperlink ref="E22" r:id="rId2"/>
+    <hyperlink ref="E26" r:id="rId1"/>
+    <hyperlink ref="E25" r:id="rId2"/>
     <hyperlink ref="E24" r:id="rId3"/>
-    <hyperlink ref="E44" r:id="rId4"/>
-    <hyperlink ref="E39" r:id="rId5"/>
-    <hyperlink ref="E29" r:id="rId6"/>
+    <hyperlink ref="E47" r:id="rId4"/>
+    <hyperlink ref="E40" r:id="rId5"/>
+    <hyperlink ref="E32" r:id="rId6"/>
     <hyperlink ref="E14" r:id="rId7"/>
-    <hyperlink ref="E42" r:id="rId8"/>
-    <hyperlink ref="E41" r:id="rId9"/>
-    <hyperlink ref="E40" r:id="rId10"/>
-    <hyperlink ref="E34" r:id="rId11"/>
-    <hyperlink ref="E35" r:id="rId12"/>
+    <hyperlink ref="E44" r:id="rId8"/>
+    <hyperlink ref="E43" r:id="rId9"/>
+    <hyperlink ref="E42" r:id="rId10"/>
+    <hyperlink ref="E38" r:id="rId11"/>
+    <hyperlink ref="E39" r:id="rId12"/>
     <hyperlink ref="E4" r:id="rId13"/>
     <hyperlink ref="E5" r:id="rId14"/>
-    <hyperlink ref="E12" r:id="rId15"/>
-    <hyperlink ref="E13" r:id="rId16"/>
-    <hyperlink ref="E26" r:id="rId17"/>
-    <hyperlink ref="E33" r:id="rId18"/>
-    <hyperlink ref="E20" r:id="rId19"/>
-    <hyperlink ref="E21" r:id="rId20"/>
-    <hyperlink ref="E38" r:id="rId21"/>
-    <hyperlink ref="E7" r:id="rId22"/>
-    <hyperlink ref="E27" r:id="rId23"/>
-    <hyperlink ref="E25" r:id="rId24"/>
-    <hyperlink ref="E32" r:id="rId25"/>
-    <hyperlink ref="E18" r:id="rId26"/>
+    <hyperlink ref="E13" r:id="rId15"/>
+    <hyperlink ref="E12" r:id="rId16"/>
+    <hyperlink ref="E30" r:id="rId17"/>
+    <hyperlink ref="E35" r:id="rId18"/>
+    <hyperlink ref="E21" r:id="rId19"/>
+    <hyperlink ref="E22" r:id="rId20"/>
+    <hyperlink ref="E41" r:id="rId21"/>
+    <hyperlink ref="E6" r:id="rId22"/>
+    <hyperlink ref="E31" r:id="rId23"/>
+    <hyperlink ref="E27" r:id="rId24"/>
+    <hyperlink ref="E37" r:id="rId25"/>
+    <hyperlink ref="E20" r:id="rId26"/>
     <hyperlink ref="E19" r:id="rId27"/>
-    <hyperlink ref="E45" r:id="rId28"/>
+    <hyperlink ref="E46" r:id="rId28"/>
+    <hyperlink ref="E36" r:id="rId29"/>
+    <hyperlink ref="E11" r:id="rId30"/>
+    <hyperlink ref="E28" r:id="rId31"/>
+    <hyperlink ref="E23" r:id="rId32"/>
+    <hyperlink ref="E18" r:id="rId33"/>
+    <hyperlink ref="E29" r:id="rId34"/>
+    <hyperlink ref="E15" r:id="rId35"/>
+    <hyperlink ref="E16" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId29"/>
+  <pageSetup orientation="portrait" r:id="rId37"/>
 </worksheet>
 </file>
 
@@ -1857,7 +2062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
@@ -1873,32 +2078,32 @@
     <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="5"/>
       <c r="B1" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>56</v>
-      </c>
       <c r="D1" s="19" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C3" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D3" s="1">
         <v>400</v>
@@ -1907,15 +2112,15 @@
         <v>6.29</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C4" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D4" s="1">
         <v>400</v>
@@ -1924,20 +2129,20 @@
         <v>5.5</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C8" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D8" s="1">
         <v>400</v>
@@ -1946,15 +2151,15 @@
         <v>9.67</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C9" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D9" s="1">
         <v>400</v>
@@ -1963,20 +2168,20 @@
         <v>7.79</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C13" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D13" s="1">
         <v>400</v>
@@ -1985,15 +2190,15 @@
         <v>9.3800000000000008</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="B14" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C14" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D14" s="1">
         <v>400</v>
@@ -2002,7 +2207,7 @@
         <v>7.29</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2024,7 +2229,7 @@
         <v>11</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2041,7 +2246,7 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2058,23 +2263,23 @@
         <v>9</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="B23" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="C23" t="s">
-        <v>155</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="E23" s="7">
         <v>9.18</v>
@@ -2082,35 +2287,35 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C34" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="2:7">
       <c r="B38" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="G38" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2135,7 +2340,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -2147,38 +2352,28 @@
     <row r="1" spans="1:8">
       <c r="A1" s="4"/>
       <c r="H1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>113</v>
-      </c>
-    </row>
     <row r="22" spans="8:9">
       <c r="H22" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I22" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="8:9">
       <c r="I23" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2188,32 +2383,39 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="23.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="4"/>
+      <c r="A1" s="4" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="B11" t="s">
+    <row r="4" spans="1:2">
+      <c r="B4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
-      <c r="B20" t="s">
+    <row r="6" spans="1:2">
+      <c r="B6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2224,139 +2426,159 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="49.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="60.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>142</v>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>184</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E25" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Document Library/Bill Of Materials/BOM Proposal and Options.xlsx
+++ b/Document Library/Bill Of Materials/BOM Proposal and Options.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="187">
   <si>
     <t>Extruder</t>
   </si>
@@ -584,6 +584,9 @@
   </si>
   <si>
     <t>May be pipe air from a  Link</t>
+  </si>
+  <si>
+    <t>software use heated chamber to condition filamenty remove moisture</t>
   </si>
 </sst>
 </file>
@@ -1056,7 +1059,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1066,9 +1069,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
@@ -2426,15 +2429,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="49.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="8.88671875" style="1"/>
     <col min="5" max="5" width="60.109375" customWidth="1"/>
   </cols>
@@ -2572,6 +2575,11 @@
       </c>
       <c r="E25" s="2" t="s">
         <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/Document Library/Bill Of Materials/BOM Proposal and Options.xlsx
+++ b/Document Library/Bill Of Materials/BOM Proposal and Options.xlsx
@@ -14,7 +14,7 @@
     <sheet name="whish list" sheetId="14" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Components!$A$3:$H$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Components!$A$3:$J$3</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="198">
   <si>
     <t>Extruder</t>
   </si>
@@ -199,18 +199,6 @@
     <t>RobotDigg Equip Makers </t>
   </si>
   <si>
-    <t>420mm will do custom lengths</t>
-  </si>
-  <si>
-    <t>MGN9H</t>
-  </si>
-  <si>
-    <t>MGN12H</t>
-  </si>
-  <si>
-    <t>400mm will do custom lengths</t>
-  </si>
-  <si>
     <t>Chamber heater</t>
   </si>
   <si>
@@ -331,9 +319,6 @@
     <t>GT2 Idler Timing Pulley 20 Tooth Wheel Bore 5mm </t>
   </si>
   <si>
-    <t>LCD Screen</t>
-  </si>
-  <si>
     <t>Depends on ToolBoard</t>
   </si>
   <si>
@@ -587,6 +572,54 @@
   </si>
   <si>
     <t>software use heated chamber to condition filamenty remove moisture</t>
+  </si>
+  <si>
+    <t>MGN12H 400mm</t>
+  </si>
+  <si>
+    <t>MGN12H 350mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MGN9H </t>
+  </si>
+  <si>
+    <t>Quality checks to be done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ USA </t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>will do custom lengths, they also combined shipping costs</t>
+  </si>
+  <si>
+    <t>will do custom lengths,they also combined shipping costs</t>
+  </si>
+  <si>
+    <t>T nuts M3 3030 pk 100</t>
+  </si>
+  <si>
+    <t>T nuts M5 3030 pk 100</t>
+  </si>
+  <si>
+    <t>supplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3HV Board 32 bit, wifi </t>
+  </si>
+  <si>
+    <t>LCD Screen  Fly  4.3" or 7"</t>
+  </si>
+  <si>
+    <t>items purchased by Mark inc deliver</t>
+  </si>
+  <si>
+    <t>Purchased by Mark inc Delivery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">will do custom lengths, they also combined shipping costs </t>
   </si>
 </sst>
 </file>
@@ -596,7 +629,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -684,16 +717,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -701,12 +747,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -752,8 +814,18 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1059,7 +1131,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1067,30 +1139,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.6" thickTop="1" thickBottom="1"/>
   <cols>
     <col min="1" max="1" width="16.6640625" customWidth="1"/>
     <col min="2" max="2" width="32.33203125" customWidth="1"/>
     <col min="3" max="3" width="56.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="50.109375" customWidth="1"/>
     <col min="6" max="6" width="11.5546875" style="6"/>
-    <col min="7" max="7" width="41.33203125" customWidth="1"/>
+    <col min="7" max="7" width="50.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" style="22" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18">
+    <row r="1" spans="1:10" ht="19.2" thickTop="1" thickBot="1">
       <c r="A1" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I1" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="J1" s="21"/>
+    </row>
+    <row r="2" spans="1:10" thickTop="1" thickBot="1">
+      <c r="I2" s="22" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" thickTop="1" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>27</v>
       </c>
@@ -1113,449 +1196,478 @@
         <v>55</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>86</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" thickTop="1" thickBot="1">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="6">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" thickTop="1" thickBot="1">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="6">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" thickTop="1" thickBot="1">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="H6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" thickTop="1" thickBot="1">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" thickTop="1" thickBot="1">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" thickTop="1" thickBot="1">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" thickTop="1" thickBot="1">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="6">
         <v>7</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="6">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="6">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="6" t="s">
+      <c r="G10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" thickTop="1" thickBot="1">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" thickTop="1" thickBot="1">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" thickTop="1" thickBot="1">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="6">
         <v>97</v>
       </c>
-      <c r="H6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="6">
-        <v>48</v>
-      </c>
-      <c r="H11" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="6">
-        <v>8</v>
-      </c>
-      <c r="G12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="6">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="14.4" customHeight="1">
+    </row>
+    <row r="14" spans="1:10" ht="14.4" customHeight="1" thickTop="1" thickBot="1">
       <c r="A14" t="s">
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>62</v>
+        <v>163</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="D14" t="s">
+        <v>165</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="6">
+      <c r="G14" t="s">
+        <v>166</v>
+      </c>
+      <c r="H14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" thickTop="1" thickBot="1">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" t="s">
+        <v>160</v>
+      </c>
+      <c r="D15" t="s">
+        <v>161</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" thickTop="1" thickBot="1">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" t="s">
+        <v>172</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="6">
         <v>7</v>
       </c>
-      <c r="G14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="D15" t="s">
-        <v>179</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="H15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="D16" t="s">
-        <v>179</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F16" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="H16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+    </row>
+    <row r="17" spans="1:8" thickTop="1" thickBot="1">
       <c r="A17" t="s">
         <v>9</v>
       </c>
       <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="6">
         <v>38</v>
       </c>
-      <c r="G17" t="s">
-        <v>68</v>
-      </c>
-      <c r="H17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+    </row>
+    <row r="18" spans="1:8" thickTop="1" thickBot="1">
       <c r="A18" t="s">
-        <v>173</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>174</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>175</v>
-      </c>
-      <c r="D18" t="s">
-        <v>176</v>
+        <v>99</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>98</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="F18" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" thickTop="1" thickBot="1">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>105</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>106</v>
+        <v>40</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F19" s="6">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" thickTop="1" thickBot="1">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>105</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>106</v>
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>80</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F20" s="6">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" thickTop="1" thickBot="1">
       <c r="A21" t="s">
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D21" t="s">
-        <v>86</v>
+        <v>39</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F21" s="6">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" thickTop="1" thickBot="1">
       <c r="A22" t="s">
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" t="s">
-        <v>86</v>
+        <v>4</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F22" s="6">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="G22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" thickTop="1" thickBot="1">
       <c r="A23" t="s">
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>168</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>169</v>
+        <v>39</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="F23" s="6">
+        <v>154</v>
+      </c>
       <c r="G23" t="s">
-        <v>171</v>
-      </c>
-      <c r="H23" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" thickTop="1" thickBot="1">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>194</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F24" s="6">
-        <v>189</v>
-      </c>
-      <c r="G24" s="7"/>
-    </row>
-    <row r="25" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" thickTop="1" thickBot="1">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>2</v>
+        <v>193</v>
       </c>
       <c r="D25" t="s">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F25" s="6">
-        <v>86</v>
-      </c>
-      <c r="G25" s="7"/>
-    </row>
-    <row r="26" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="G25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" thickTop="1" thickBot="1">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -1563,501 +1675,562 @@
         <v>31</v>
       </c>
       <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="6">
+        <v>189</v>
+      </c>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" thickTop="1" thickBot="1">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="6">
+        <v>86</v>
+      </c>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" thickTop="1" thickBot="1">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" t="s">
         <v>52</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D28" t="s">
         <v>1</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F26" s="6">
+      <c r="E28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" s="6">
         <v>96</v>
       </c>
-      <c r="G26" s="7"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F27" s="6">
-        <v>3.5</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" thickTop="1" thickBot="1">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" t="s">
-        <v>172</v>
-      </c>
-      <c r="C28" t="s">
-        <v>165</v>
-      </c>
-      <c r="D28" t="s">
-        <v>166</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F28" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" t="s">
-        <v>172</v>
-      </c>
-      <c r="C29" t="s">
-        <v>177</v>
-      </c>
       <c r="D29" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" s="6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" thickTop="1" thickBot="1">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" s="6">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" thickTop="1" thickBot="1">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" t="s">
+        <v>129</v>
+      </c>
+      <c r="D31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" s="6">
+        <v>116</v>
+      </c>
+      <c r="G31" s="7"/>
+      <c r="H31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" thickTop="1" thickBot="1">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
         <v>1</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F29" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" t="s">
-        <v>82</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F30" s="6">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="D31" t="s">
-        <v>1</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="H31" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" t="s">
-        <v>59</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>56</v>
-      </c>
       <c r="E32" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F32" s="6">
-        <v>15</v>
-      </c>
-      <c r="G32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="1:10" thickTop="1" thickBot="1">
       <c r="A33" t="s">
         <v>10</v>
       </c>
       <c r="B33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" thickTop="1" thickBot="1">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" t="s">
+        <v>64</v>
+      </c>
+      <c r="H34" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" thickTop="1" thickBot="1">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H35" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" thickTop="1" thickBot="1">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" thickTop="1" thickBot="1">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F37" s="6">
+        <v>48</v>
+      </c>
+      <c r="H37" t="s">
+        <v>159</v>
+      </c>
+      <c r="I37" s="22">
+        <v>1</v>
+      </c>
+      <c r="J37" s="23">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" thickTop="1" thickBot="1">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F38" s="6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" thickTop="1" thickBot="1">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" thickTop="1" thickBot="1">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s">
         <v>35</v>
       </c>
-      <c r="C33" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="9" t="s">
+      <c r="C40" t="s">
+        <v>183</v>
+      </c>
+      <c r="D40" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F33" s="6">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34" s="17"/>
-      <c r="H34" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" t="s">
-        <v>104</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F35" s="6">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="D36" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F36" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="E40" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F40" s="6">
+        <v>13.5</v>
+      </c>
+      <c r="G40" t="s">
+        <v>197</v>
+      </c>
+      <c r="I40" s="22">
+        <v>3</v>
+      </c>
+      <c r="J40" s="23">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" thickTop="1" thickBot="1">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" t="s">
+        <v>182</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" s="6">
+        <v>15</v>
+      </c>
+      <c r="G41" t="s">
+        <v>189</v>
+      </c>
+      <c r="I41" s="22">
+        <v>2</v>
+      </c>
+      <c r="J41" s="23">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" thickTop="1" thickBot="1">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" t="s">
+        <v>184</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F42" s="6">
+        <v>15</v>
+      </c>
+      <c r="G42" t="s">
+        <v>188</v>
+      </c>
+      <c r="I42" s="22">
+        <v>1</v>
+      </c>
+      <c r="J42" s="23">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" thickTop="1" thickBot="1">
+      <c r="A43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F43" s="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" thickTop="1" thickBot="1">
+      <c r="A44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" t="s">
+        <v>71</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F44" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" thickTop="1" thickBot="1">
+      <c r="A45" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="D45" t="s">
+        <v>174</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F45" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="H45" t="s">
         <v>85</v>
       </c>
-      <c r="D37" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F37" s="6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" t="s">
+    </row>
+    <row r="46" spans="1:10" thickTop="1" thickBot="1">
+      <c r="A46" t="s">
         <v>34</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D46" t="s">
+        <v>174</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F46" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="H46" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" thickTop="1" thickBot="1">
+      <c r="A47" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" t="s">
         <v>36</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C47" t="s">
         <v>21</v>
       </c>
-      <c r="D38" t="s">
-        <v>74</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F38" s="6">
+      <c r="D47" t="s">
+        <v>70</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F47" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
-      <c r="A39" t="s">
+    <row r="48" spans="1:10" thickTop="1" thickBot="1">
+      <c r="A48" t="s">
         <v>34</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B48" t="s">
         <v>36</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C48" t="s">
         <v>22</v>
       </c>
-      <c r="D39" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F39" s="6">
+      <c r="D48" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F48" s="6">
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
-      <c r="A40" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" t="s">
-        <v>92</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="D40" t="s">
-        <v>93</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F40" s="6">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" t="s">
-        <v>37</v>
-      </c>
-      <c r="B41" t="s">
-        <v>92</v>
-      </c>
-      <c r="C41" t="s">
-        <v>94</v>
-      </c>
-      <c r="D41" t="s">
-        <v>93</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F41" s="6">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" t="s">
-        <v>9</v>
-      </c>
-      <c r="B42" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F42" s="6">
-        <v>43</v>
-      </c>
-      <c r="G42" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" t="s">
-        <v>9</v>
-      </c>
-      <c r="B43" t="s">
-        <v>39</v>
-      </c>
-      <c r="C43" t="s">
-        <v>4</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F43" s="6">
-        <v>65</v>
-      </c>
-      <c r="G43" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" t="s">
-        <v>9</v>
-      </c>
-      <c r="B44" t="s">
-        <v>39</v>
-      </c>
-      <c r="C44" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" t="s">
-        <v>64</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F44" s="6">
-        <v>154</v>
-      </c>
-      <c r="G44" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" t="s">
-        <v>9</v>
-      </c>
-      <c r="B45" t="s">
-        <v>39</v>
-      </c>
-      <c r="C45" t="s">
-        <v>101</v>
-      </c>
-      <c r="E45" s="2"/>
-      <c r="H45" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" t="s">
-        <v>37</v>
-      </c>
-      <c r="B46" t="s">
-        <v>53</v>
-      </c>
-      <c r="C46" t="s">
-        <v>134</v>
-      </c>
-      <c r="D46" t="s">
-        <v>135</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F46" s="6">
-        <v>116</v>
-      </c>
-      <c r="G46" s="7"/>
-      <c r="H46" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" t="s">
-        <v>37</v>
-      </c>
-      <c r="B47" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F47" s="6">
-        <v>95</v>
-      </c>
-      <c r="G47" s="7"/>
+    <row r="49" spans="1:5" thickTop="1" thickBot="1">
+      <c r="A49" t="s">
+        <v>168</v>
+      </c>
+      <c r="B49" t="s">
+        <v>169</v>
+      </c>
+      <c r="C49" t="s">
+        <v>170</v>
+      </c>
+      <c r="D49" t="s">
+        <v>171</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:H46">
-    <sortState ref="A4:H47">
-      <sortCondition ref="B3:B46"/>
+  <autoFilter ref="A3:J3">
+    <sortState ref="A4:J49">
+      <sortCondition ref="A3"/>
     </sortState>
   </autoFilter>
   <sortState ref="A4:B34">
     <sortCondition ref="A4:A34"/>
   </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="I1:J1"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E26" r:id="rId1"/>
-    <hyperlink ref="E25" r:id="rId2"/>
-    <hyperlink ref="E24" r:id="rId3"/>
-    <hyperlink ref="E47" r:id="rId4"/>
-    <hyperlink ref="E40" r:id="rId5"/>
-    <hyperlink ref="E32" r:id="rId6"/>
-    <hyperlink ref="E14" r:id="rId7"/>
-    <hyperlink ref="E44" r:id="rId8"/>
-    <hyperlink ref="E43" r:id="rId9"/>
-    <hyperlink ref="E42" r:id="rId10"/>
-    <hyperlink ref="E38" r:id="rId11"/>
-    <hyperlink ref="E39" r:id="rId12"/>
-    <hyperlink ref="E4" r:id="rId13"/>
-    <hyperlink ref="E5" r:id="rId14"/>
-    <hyperlink ref="E13" r:id="rId15"/>
-    <hyperlink ref="E12" r:id="rId16"/>
-    <hyperlink ref="E30" r:id="rId17"/>
-    <hyperlink ref="E35" r:id="rId18"/>
-    <hyperlink ref="E21" r:id="rId19"/>
-    <hyperlink ref="E22" r:id="rId20"/>
-    <hyperlink ref="E41" r:id="rId21"/>
-    <hyperlink ref="E6" r:id="rId22"/>
-    <hyperlink ref="E31" r:id="rId23"/>
-    <hyperlink ref="E27" r:id="rId24"/>
-    <hyperlink ref="E37" r:id="rId25"/>
-    <hyperlink ref="E20" r:id="rId26"/>
-    <hyperlink ref="E19" r:id="rId27"/>
-    <hyperlink ref="E46" r:id="rId28"/>
-    <hyperlink ref="E36" r:id="rId29"/>
-    <hyperlink ref="E11" r:id="rId30"/>
-    <hyperlink ref="E28" r:id="rId31"/>
-    <hyperlink ref="E23" r:id="rId32"/>
-    <hyperlink ref="E18" r:id="rId33"/>
-    <hyperlink ref="E29" r:id="rId34"/>
-    <hyperlink ref="E15" r:id="rId35"/>
-    <hyperlink ref="E16" r:id="rId36"/>
+    <hyperlink ref="E28" r:id="rId1"/>
+    <hyperlink ref="E27" r:id="rId2"/>
+    <hyperlink ref="E26" r:id="rId3"/>
+    <hyperlink ref="E32" r:id="rId4"/>
+    <hyperlink ref="E29" r:id="rId5"/>
+    <hyperlink ref="E40" r:id="rId6"/>
+    <hyperlink ref="E10" r:id="rId7"/>
+    <hyperlink ref="E23" r:id="rId8"/>
+    <hyperlink ref="E22" r:id="rId9"/>
+    <hyperlink ref="E21" r:id="rId10"/>
+    <hyperlink ref="E47" r:id="rId11"/>
+    <hyperlink ref="E48" r:id="rId12"/>
+    <hyperlink ref="E43" r:id="rId13"/>
+    <hyperlink ref="E44" r:id="rId14"/>
+    <hyperlink ref="E5" r:id="rId15"/>
+    <hyperlink ref="E4" r:id="rId16"/>
+    <hyperlink ref="E17" r:id="rId17"/>
+    <hyperlink ref="E18" r:id="rId18"/>
+    <hyperlink ref="E12" r:id="rId19"/>
+    <hyperlink ref="E13" r:id="rId20"/>
+    <hyperlink ref="E30" r:id="rId21"/>
+    <hyperlink ref="E7" r:id="rId22"/>
+    <hyperlink ref="E9" r:id="rId23"/>
+    <hyperlink ref="E8" r:id="rId24"/>
+    <hyperlink ref="E20" r:id="rId25"/>
+    <hyperlink ref="E39" r:id="rId26"/>
+    <hyperlink ref="E38" r:id="rId27"/>
+    <hyperlink ref="E31" r:id="rId28"/>
+    <hyperlink ref="E19" r:id="rId29"/>
+    <hyperlink ref="E37" r:id="rId30"/>
+    <hyperlink ref="E15" r:id="rId31"/>
+    <hyperlink ref="E14" r:id="rId32"/>
+    <hyperlink ref="E49" r:id="rId33"/>
+    <hyperlink ref="E16" r:id="rId34"/>
+    <hyperlink ref="E45" r:id="rId35"/>
+    <hyperlink ref="E46" r:id="rId36"/>
+    <hyperlink ref="E41" r:id="rId37"/>
+    <hyperlink ref="E25" r:id="rId38"/>
+    <hyperlink ref="E24" r:id="rId39"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId37"/>
+  <pageSetup orientation="portrait" r:id="rId40"/>
 </worksheet>
 </file>
 
@@ -2087,7 +2260,7 @@
         <v>55</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>20</v>
@@ -2098,15 +2271,15 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D3" s="1">
         <v>400</v>
@@ -2120,10 +2293,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" t="s">
         <v>138</v>
-      </c>
-      <c r="C4" t="s">
-        <v>143</v>
       </c>
       <c r="D4" s="1">
         <v>400</v>
@@ -2137,15 +2310,15 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D8" s="1">
         <v>400</v>
@@ -2159,10 +2332,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="B9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" t="s">
         <v>138</v>
-      </c>
-      <c r="C9" t="s">
-        <v>143</v>
       </c>
       <c r="D9" s="1">
         <v>400</v>
@@ -2176,15 +2349,15 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C13" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D13" s="1">
         <v>400</v>
@@ -2198,10 +2371,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="B14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" t="s">
         <v>138</v>
-      </c>
-      <c r="C14" t="s">
-        <v>143</v>
       </c>
       <c r="D14" s="1">
         <v>400</v>
@@ -2271,18 +2444,18 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="B23" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C23" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E23" s="7">
         <v>9.18</v>
@@ -2290,21 +2463,21 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C34" t="s">
+        <v>143</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E34" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>51</v>
@@ -2312,13 +2485,13 @@
     </row>
     <row r="38" spans="2:7">
       <c r="B38" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G38" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2343,40 +2516,77 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" thickTop="1" thickBottom="1"/>
   <cols>
     <col min="1" max="1" width="33.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" style="6"/>
+    <col min="3" max="3" width="26.33203125" customWidth="1"/>
+    <col min="5" max="5" width="27.77734375" style="23" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" thickTop="1" thickBot="1">
       <c r="A1" s="4"/>
+      <c r="E1" s="23" t="s">
+        <v>196</v>
+      </c>
       <c r="H1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" thickTop="1" thickBot="1">
       <c r="A2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="8:9">
+      <c r="C2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" thickTop="1" thickBot="1">
+      <c r="A15" t="s">
+        <v>190</v>
+      </c>
+      <c r="B15" s="6">
+        <v>7.88</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="23">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" thickTop="1" thickBot="1">
+      <c r="A16" t="s">
+        <v>191</v>
+      </c>
+      <c r="B16" s="6">
+        <v>7.88</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="23">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="22" spans="8:9" thickTop="1" thickBot="1">
       <c r="H22" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I22" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="23" spans="8:9">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="8:9" thickTop="1" thickBot="1">
       <c r="I23" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2399,7 +2609,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2444,142 +2654,142 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/Document Library/Bill Of Materials/BOM Proposal and Options.xlsx
+++ b/Document Library/Bill Of Materials/BOM Proposal and Options.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="200">
   <si>
     <t>Extruder</t>
   </si>
@@ -620,6 +620,12 @@
   </si>
   <si>
     <t xml:space="preserve">will do custom lengths, they also combined shipping costs </t>
+  </si>
+  <si>
+    <t>Stepper Motor Nema14 36HS2418 19mm,</t>
+  </si>
+  <si>
+    <t>ACT Motor Store</t>
   </si>
 </sst>
 </file>
@@ -629,7 +635,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -725,6 +731,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -768,7 +781,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -817,10 +830,13 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="2" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1139,11 +1155,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
+      <pane ySplit="3" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.6" thickTop="1" thickBottom="1"/>
@@ -1155,21 +1171,21 @@
     <col min="6" max="6" width="11.5546875" style="6"/>
     <col min="7" max="7" width="50.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" style="22" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" style="23"/>
+    <col min="9" max="9" width="16" style="21" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.2" thickTop="1" thickBot="1">
       <c r="A1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="J1" s="21"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" thickTop="1" thickBot="1">
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="21" t="s">
         <v>195</v>
       </c>
     </row>
@@ -1198,215 +1214,211 @@
       <c r="H3" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="22" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:10" thickTop="1" thickBot="1">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" t="s">
-        <v>76</v>
+        <v>7</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F4" s="6">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:10" thickTop="1" thickBot="1">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F5" s="6">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:10" thickTop="1" thickBot="1">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="17"/>
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="H6" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:10" thickTop="1" thickBot="1">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" t="s">
-        <v>92</v>
+        <v>44</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="H7" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:10" thickTop="1" thickBot="1">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="6">
-        <v>3.5</v>
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" t="s">
+        <v>64</v>
       </c>
       <c r="H8" t="s">
-        <v>87</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:10" thickTop="1" thickBot="1">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>95</v>
+        <v>44</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="H9" t="s">
-        <v>87</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:10" thickTop="1" thickBot="1">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="6">
-        <v>7</v>
-      </c>
-      <c r="G10" t="s">
-        <v>5</v>
+        <v>44</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:10" thickTop="1" thickBot="1">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" t="s">
-        <v>64</v>
+        <v>44</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="6">
+        <v>48</v>
       </c>
       <c r="H11" t="s">
-        <v>87</v>
+        <v>159</v>
+      </c>
+      <c r="I11" s="21">
+        <v>1</v>
+      </c>
+      <c r="J11" s="22">
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:10" thickTop="1" thickBot="1">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D12" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F12" s="6">
-        <v>76</v>
+        <v>8</v>
+      </c>
+      <c r="G12" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:10" thickTop="1" thickBot="1">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D13" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F13" s="6">
-        <v>97</v>
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.4" customHeight="1" thickTop="1" thickBot="1">
@@ -1414,260 +1426,247 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>163</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="D14" t="s">
-        <v>165</v>
+        <v>57</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="F14" s="6">
+        <v>7</v>
+      </c>
       <c r="G14" t="s">
-        <v>166</v>
-      </c>
-      <c r="H14" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:10" thickTop="1" thickBot="1">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>167</v>
-      </c>
-      <c r="C15" t="s">
-        <v>160</v>
+        <v>43</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>173</v>
       </c>
       <c r="D15" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F15" s="6">
-        <v>5</v>
+        <v>0.5</v>
+      </c>
+      <c r="H15" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:10" thickTop="1" thickBot="1">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>167</v>
-      </c>
-      <c r="C16" t="s">
-        <v>172</v>
+        <v>43</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>175</v>
       </c>
       <c r="D16" t="s">
-        <v>1</v>
+        <v>174</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>51</v>
+        <v>176</v>
       </c>
       <c r="F16" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" thickTop="1" thickBot="1">
+        <v>0.5</v>
+      </c>
+      <c r="H16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" thickTop="1" thickBot="1">
       <c r="A17" t="s">
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="6">
         <v>38</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" thickTop="1" thickBot="1">
+      <c r="G17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" thickTop="1" thickBot="1">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>168</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>169</v>
       </c>
       <c r="C18" t="s">
-        <v>99</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>98</v>
+        <v>170</v>
+      </c>
+      <c r="D18" t="s">
+        <v>171</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F18" s="6">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" thickTop="1" thickBot="1">
+    </row>
+    <row r="19" spans="1:10" thickTop="1" thickBot="1">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>155</v>
+        <v>100</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>101</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F19" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" thickTop="1" thickBot="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" thickTop="1" thickBot="1">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>80</v>
+        <v>100</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>101</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F20" s="6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" thickTop="1" thickBot="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" thickTop="1" thickBot="1">
       <c r="A21" t="s">
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>62</v>
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" t="s">
+        <v>82</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F21" s="6">
-        <v>43</v>
-      </c>
-      <c r="G21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" thickTop="1" thickBot="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" thickTop="1" thickBot="1">
       <c r="A22" t="s">
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>62</v>
+        <v>84</v>
+      </c>
+      <c r="D22" t="s">
+        <v>82</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F22" s="6">
-        <v>65</v>
-      </c>
-      <c r="G22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" thickTop="1" thickBot="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" thickTop="1" thickBot="1">
       <c r="A23" t="s">
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" t="s">
-        <v>6</v>
+        <v>163</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>164</v>
       </c>
       <c r="D23" t="s">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="6">
-        <v>154</v>
-      </c>
       <c r="G23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" thickTop="1" thickBot="1">
+        <v>166</v>
+      </c>
+      <c r="H23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" thickTop="1" thickBot="1">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>194</v>
+        <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F24" s="6">
-        <v>45</v>
-      </c>
-      <c r="H24" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" thickTop="1" thickBot="1">
+        <v>189</v>
+      </c>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="1:10" thickTop="1" thickBot="1">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>193</v>
+        <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F25" s="6">
-        <v>63</v>
-      </c>
-      <c r="G25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" thickTop="1" thickBot="1">
+        <v>86</v>
+      </c>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="1:10" thickTop="1" thickBot="1">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -1675,158 +1674,181 @@
         <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="D26" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F26" s="6">
-        <v>189</v>
+        <v>96</v>
       </c>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="1:8" thickTop="1" thickBot="1">
+    <row r="27" spans="1:10" thickTop="1" thickBot="1">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="H27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" thickTop="1" thickBot="1">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>167</v>
+      </c>
+      <c r="C28" t="s">
+        <v>160</v>
+      </c>
+      <c r="D28" t="s">
+        <v>161</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" thickTop="1" thickBot="1">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>167</v>
+      </c>
+      <c r="C29" t="s">
+        <v>172</v>
+      </c>
+      <c r="D29" t="s">
         <v>1</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F27" s="6">
-        <v>86</v>
-      </c>
-      <c r="G27" s="7"/>
-    </row>
-    <row r="28" spans="1:8" thickTop="1" thickBot="1">
-      <c r="A28" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="E29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" thickTop="1" thickBot="1">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" s="6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" thickTop="1" thickBot="1">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" t="s">
         <v>1</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F28" s="6">
-        <v>96</v>
-      </c>
-      <c r="G28" s="7"/>
-    </row>
-    <row r="29" spans="1:8" thickTop="1" thickBot="1">
-      <c r="A29" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D29" t="s">
-        <v>89</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F29" s="6">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" thickTop="1" thickBot="1">
-      <c r="A30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" t="s">
-        <v>90</v>
-      </c>
-      <c r="D30" t="s">
-        <v>89</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F30" s="6">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" thickTop="1" thickBot="1">
-      <c r="A31" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" t="s">
-        <v>129</v>
-      </c>
-      <c r="D31" t="s">
-        <v>130</v>
-      </c>
       <c r="E31" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F31" s="6">
-        <v>116</v>
-      </c>
-      <c r="G31" s="7"/>
+      <c r="F31" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="H31" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" thickTop="1" thickBot="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" thickTop="1" thickBot="1">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s">
-        <v>1</v>
+        <v>183</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F32" s="6">
-        <v>95</v>
-      </c>
-      <c r="G32" s="7"/>
+        <v>13.5</v>
+      </c>
+      <c r="G32" t="s">
+        <v>197</v>
+      </c>
+      <c r="I32" s="21">
+        <v>3</v>
+      </c>
+      <c r="J32" s="22">
+        <v>42</v>
+      </c>
     </row>
     <row r="33" spans="1:10" thickTop="1" thickBot="1">
       <c r="A33" t="s">
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D33" t="s">
-        <v>64</v>
+        <v>35</v>
+      </c>
+      <c r="C33" t="s">
+        <v>182</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" s="6">
+        <v>15</v>
+      </c>
+      <c r="G33" t="s">
+        <v>189</v>
+      </c>
+      <c r="I33" s="21">
+        <v>2</v>
+      </c>
+      <c r="J33" s="22">
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:10" thickTop="1" thickBot="1">
@@ -1834,159 +1856,154 @@
         <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>66</v>
-      </c>
-      <c r="D34" t="s">
-        <v>64</v>
-      </c>
-      <c r="H34" t="s">
-        <v>158</v>
+        <v>184</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" s="6">
+        <v>15</v>
+      </c>
+      <c r="G34" t="s">
+        <v>188</v>
+      </c>
+      <c r="I34" s="21">
+        <v>1</v>
+      </c>
+      <c r="J34" s="22">
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:10" thickTop="1" thickBot="1">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>64</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D35" s="17"/>
       <c r="H35" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:10" thickTop="1" thickBot="1">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>64</v>
+        <v>40</v>
+      </c>
+      <c r="C36" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F36" s="6">
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:10" thickTop="1" thickBot="1">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>157</v>
+        <v>40</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F37" s="6">
-        <v>48</v>
-      </c>
-      <c r="H37" t="s">
-        <v>159</v>
-      </c>
-      <c r="I37" s="22">
-        <v>1</v>
-      </c>
-      <c r="J37" s="23">
-        <v>48</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:10" thickTop="1" thickBot="1">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>100</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>101</v>
+        <v>40</v>
+      </c>
+      <c r="C38" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>80</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F38" s="6">
-        <v>62</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:10" thickTop="1" thickBot="1">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B39" t="s">
-        <v>100</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>101</v>
+        <v>36</v>
+      </c>
+      <c r="C39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" t="s">
+        <v>70</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F39" s="6">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:10" thickTop="1" thickBot="1">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>183</v>
+        <v>22</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F40" s="6">
-        <v>13.5</v>
-      </c>
-      <c r="G40" t="s">
-        <v>197</v>
-      </c>
-      <c r="I40" s="22">
-        <v>3</v>
-      </c>
-      <c r="J40" s="23">
-        <v>42</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:10" thickTop="1" thickBot="1">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B41" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C41" t="s">
-        <v>182</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>56</v>
+        <v>21</v>
+      </c>
+      <c r="D41" t="s">
+        <v>70</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>51</v>
@@ -1994,192 +2011,231 @@
       <c r="F41" s="6">
         <v>15</v>
       </c>
-      <c r="G41" t="s">
-        <v>189</v>
-      </c>
-      <c r="I41" s="22">
-        <v>2</v>
-      </c>
-      <c r="J41" s="23">
-        <v>37</v>
-      </c>
     </row>
     <row r="42" spans="1:10" thickTop="1" thickBot="1">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
-      </c>
-      <c r="C42" t="s">
-        <v>184</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>56</v>
+        <v>36</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="D42" t="s">
+        <v>199</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F42" s="6">
-        <v>15</v>
-      </c>
-      <c r="G42" t="s">
-        <v>188</v>
-      </c>
-      <c r="I42" s="22">
-        <v>1</v>
-      </c>
-      <c r="J42" s="23">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:10" thickTop="1" thickBot="1">
       <c r="A43" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B43" t="s">
-        <v>32</v>
-      </c>
-      <c r="C43" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>62</v>
+        <v>88</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" t="s">
+        <v>89</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F43" s="6">
-        <v>35</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:10" thickTop="1" thickBot="1">
       <c r="A44" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B44" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="C44" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="D44" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F44" s="6">
-        <v>13</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:10" thickTop="1" thickBot="1">
       <c r="A45" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B45" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F45" s="6">
         <v>43</v>
       </c>
-      <c r="C45" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="D45" t="s">
-        <v>174</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F45" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="H45" t="s">
-        <v>85</v>
+      <c r="G45" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:10" thickTop="1" thickBot="1">
       <c r="A46" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>43</v>
-      </c>
-      <c r="C46" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="D46" t="s">
-        <v>174</v>
+        <v>39</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>176</v>
+        <v>51</v>
       </c>
       <c r="F46" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="H46" t="s">
-        <v>85</v>
+        <v>65</v>
+      </c>
+      <c r="G46" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:10" thickTop="1" thickBot="1">
       <c r="A47" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C47" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D47" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F47" s="6">
-        <v>15</v>
+        <v>154</v>
+      </c>
+      <c r="G47" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:10" thickTop="1" thickBot="1">
       <c r="A48" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>69</v>
+        <v>194</v>
+      </c>
+      <c r="D48" t="s">
+        <v>89</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F48" s="6">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" thickTop="1" thickBot="1">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" thickTop="1" thickBot="1">
       <c r="A49" t="s">
-        <v>168</v>
+        <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>169</v>
+        <v>39</v>
       </c>
       <c r="C49" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="D49" t="s">
-        <v>171</v>
+        <v>89</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="F49" s="6">
+        <v>63</v>
+      </c>
+      <c r="G49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" thickTop="1" thickBot="1">
+      <c r="A50" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" t="s">
+        <v>129</v>
+      </c>
+      <c r="D50" t="s">
+        <v>130</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F50" s="6">
+        <v>116</v>
+      </c>
+      <c r="G50" s="7"/>
+      <c r="H50" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" thickTop="1" thickBot="1">
+      <c r="A51" t="s">
+        <v>37</v>
+      </c>
+      <c r="B51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F51" s="6">
+        <v>95</v>
+      </c>
+      <c r="G51" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:J3">
-    <sortState ref="A4:J49">
-      <sortCondition ref="A3"/>
+    <sortState ref="A4:J51">
+      <sortCondition ref="B3"/>
     </sortState>
   </autoFilter>
   <sortState ref="A4:B34">
@@ -2189,48 +2245,50 @@
     <mergeCell ref="I1:J1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E28" r:id="rId1"/>
-    <hyperlink ref="E27" r:id="rId2"/>
-    <hyperlink ref="E26" r:id="rId3"/>
-    <hyperlink ref="E32" r:id="rId4"/>
-    <hyperlink ref="E29" r:id="rId5"/>
-    <hyperlink ref="E40" r:id="rId6"/>
-    <hyperlink ref="E10" r:id="rId7"/>
-    <hyperlink ref="E23" r:id="rId8"/>
-    <hyperlink ref="E22" r:id="rId9"/>
-    <hyperlink ref="E21" r:id="rId10"/>
-    <hyperlink ref="E47" r:id="rId11"/>
-    <hyperlink ref="E48" r:id="rId12"/>
-    <hyperlink ref="E43" r:id="rId13"/>
-    <hyperlink ref="E44" r:id="rId14"/>
-    <hyperlink ref="E5" r:id="rId15"/>
-    <hyperlink ref="E4" r:id="rId16"/>
-    <hyperlink ref="E17" r:id="rId17"/>
-    <hyperlink ref="E18" r:id="rId18"/>
-    <hyperlink ref="E12" r:id="rId19"/>
-    <hyperlink ref="E13" r:id="rId20"/>
-    <hyperlink ref="E30" r:id="rId21"/>
-    <hyperlink ref="E7" r:id="rId22"/>
-    <hyperlink ref="E9" r:id="rId23"/>
-    <hyperlink ref="E8" r:id="rId24"/>
-    <hyperlink ref="E20" r:id="rId25"/>
-    <hyperlink ref="E39" r:id="rId26"/>
-    <hyperlink ref="E38" r:id="rId27"/>
-    <hyperlink ref="E31" r:id="rId28"/>
-    <hyperlink ref="E19" r:id="rId29"/>
-    <hyperlink ref="E37" r:id="rId30"/>
-    <hyperlink ref="E15" r:id="rId31"/>
-    <hyperlink ref="E14" r:id="rId32"/>
-    <hyperlink ref="E49" r:id="rId33"/>
-    <hyperlink ref="E16" r:id="rId34"/>
-    <hyperlink ref="E45" r:id="rId35"/>
-    <hyperlink ref="E46" r:id="rId36"/>
-    <hyperlink ref="E41" r:id="rId37"/>
-    <hyperlink ref="E25" r:id="rId38"/>
-    <hyperlink ref="E24" r:id="rId39"/>
+    <hyperlink ref="E26" r:id="rId1"/>
+    <hyperlink ref="E25" r:id="rId2"/>
+    <hyperlink ref="E24" r:id="rId3"/>
+    <hyperlink ref="E51" r:id="rId4"/>
+    <hyperlink ref="E43" r:id="rId5"/>
+    <hyperlink ref="E32" r:id="rId6"/>
+    <hyperlink ref="E14" r:id="rId7"/>
+    <hyperlink ref="E47" r:id="rId8"/>
+    <hyperlink ref="E46" r:id="rId9"/>
+    <hyperlink ref="E45" r:id="rId10"/>
+    <hyperlink ref="E39" r:id="rId11"/>
+    <hyperlink ref="E40" r:id="rId12"/>
+    <hyperlink ref="E4" r:id="rId13"/>
+    <hyperlink ref="E5" r:id="rId14"/>
+    <hyperlink ref="E13" r:id="rId15"/>
+    <hyperlink ref="E12" r:id="rId16"/>
+    <hyperlink ref="E30" r:id="rId17"/>
+    <hyperlink ref="E36" r:id="rId18"/>
+    <hyperlink ref="E21" r:id="rId19"/>
+    <hyperlink ref="E22" r:id="rId20"/>
+    <hyperlink ref="E44" r:id="rId21"/>
+    <hyperlink ref="E6" r:id="rId22"/>
+    <hyperlink ref="E31" r:id="rId23"/>
+    <hyperlink ref="E27" r:id="rId24"/>
+    <hyperlink ref="E38" r:id="rId25"/>
+    <hyperlink ref="E20" r:id="rId26"/>
+    <hyperlink ref="E19" r:id="rId27"/>
+    <hyperlink ref="E50" r:id="rId28"/>
+    <hyperlink ref="E37" r:id="rId29"/>
+    <hyperlink ref="E11" r:id="rId30"/>
+    <hyperlink ref="E28" r:id="rId31"/>
+    <hyperlink ref="E23" r:id="rId32"/>
+    <hyperlink ref="E18" r:id="rId33"/>
+    <hyperlink ref="E29" r:id="rId34"/>
+    <hyperlink ref="E15" r:id="rId35"/>
+    <hyperlink ref="E16" r:id="rId36"/>
+    <hyperlink ref="E33" r:id="rId37"/>
+    <hyperlink ref="E49" r:id="rId38"/>
+    <hyperlink ref="E48" r:id="rId39"/>
+    <hyperlink ref="E41" r:id="rId40"/>
+    <hyperlink ref="E42" r:id="rId41"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId40"/>
+  <pageSetup orientation="portrait" r:id="rId42"/>
 </worksheet>
 </file>
 
@@ -2524,13 +2582,13 @@
     <col min="1" max="1" width="33.6640625" customWidth="1"/>
     <col min="2" max="2" width="8.77734375" style="6"/>
     <col min="3" max="3" width="26.33203125" customWidth="1"/>
-    <col min="5" max="5" width="27.77734375" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.77734375" style="22" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" thickTop="1" thickBot="1">
       <c r="A1" s="4"/>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>196</v>
       </c>
       <c r="H1" t="s">
@@ -2558,7 +2616,7 @@
       <c r="C15" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="22">
         <v>8.5</v>
       </c>
     </row>
@@ -2572,7 +2630,7 @@
       <c r="C16" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="22">
         <v>8.5</v>
       </c>
     </row>
